--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_马丁组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.7 新特性|Fix Bug'!$A$1:$W$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1051,6 +1051,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,15 +1085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1104,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1115,11 +1115,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1463,7 +1461,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1573,7 +1571,7 @@
       <c r="C2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1595,10 +1593,10 @@
         <v>42826</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N2" s="58" t="s">
@@ -1610,7 +1608,7 @@
       <c r="R2" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="80" t="s">
         <v>68</v>
       </c>
       <c r="T2" s="68"/>
@@ -1629,7 +1627,7 @@
       <c r="C3" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="78" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1651,10 +1649,10 @@
         <v>42826</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N3" s="58" t="s">
@@ -1666,7 +1664,7 @@
       <c r="R3" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="80" t="s">
         <v>78</v>
       </c>
       <c r="T3" s="56"/>
@@ -1685,7 +1683,7 @@
       <c r="C4" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -1707,10 +1705,10 @@
         <v>42826</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N4" s="58" t="s">
@@ -1722,7 +1720,7 @@
       <c r="R4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="80" t="s">
         <v>79</v>
       </c>
       <c r="T4" s="56"/>
@@ -1763,10 +1761,10 @@
         <v>42826</v>
       </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N5" s="58" t="s">
@@ -1778,7 +1776,7 @@
       <c r="R5" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="80" t="s">
         <v>82</v>
       </c>
       <c r="T5" s="56"/>
@@ -1819,10 +1817,10 @@
         <v>42826</v>
       </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -1834,7 +1832,7 @@
       <c r="R6" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="80" t="s">
         <v>85</v>
       </c>
       <c r="T6" s="56"/>
@@ -1853,7 +1851,7 @@
       <c r="C7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="78" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="58" t="s">
@@ -1875,10 +1873,10 @@
         <v>42826</v>
       </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N7" s="58" t="s">
@@ -1890,7 +1888,7 @@
       <c r="R7" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="89" t="s">
+      <c r="S7" s="80" t="s">
         <v>89</v>
       </c>
       <c r="T7" s="56"/>
@@ -1909,7 +1907,7 @@
       <c r="C8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="78" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -1931,10 +1929,10 @@
         <v>42826</v>
       </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="79" t="s">
         <v>99</v>
       </c>
       <c r="N8" s="58" t="s">
@@ -1946,7 +1944,7 @@
       <c r="R8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="80" t="s">
         <v>93</v>
       </c>
       <c r="T8" s="56"/>
@@ -6087,19 +6085,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6137,8 +6135,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6150,8 +6148,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6163,8 +6161,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6176,8 +6174,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6189,8 +6187,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6202,8 +6200,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6215,8 +6213,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6228,8 +6226,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6290,36 +6288,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6604,36 +6602,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6918,36 +6916,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7234,36 +7232,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -396,6 +396,23 @@
   </si>
   <si>
     <t>低</t>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qian</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>依然</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ra</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1134,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1461,7 +1478,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="Q2" sqref="Q2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1602,9 +1619,15 @@
       <c r="N2" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
+      <c r="O2" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>42830</v>
+      </c>
       <c r="R2" s="62" t="s">
         <v>75</v>
       </c>
@@ -1658,9 +1681,15 @@
       <c r="N3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
+      <c r="O3" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42830</v>
+      </c>
       <c r="R3" s="62" t="s">
         <v>75</v>
       </c>
@@ -1714,9 +1743,15 @@
       <c r="N4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
+      <c r="O4" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42830</v>
+      </c>
       <c r="R4" s="62" t="s">
         <v>75</v>
       </c>
@@ -1770,9 +1805,15 @@
       <c r="N5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
+      <c r="O5" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>42830</v>
+      </c>
       <c r="R5" s="62" t="s">
         <v>75</v>
       </c>
@@ -1826,9 +1867,15 @@
       <c r="N6" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="59"/>
+      <c r="O6" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42830</v>
+      </c>
       <c r="R6" s="62" t="s">
         <v>75</v>
       </c>
@@ -1882,9 +1929,15 @@
       <c r="N7" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
+      <c r="O7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42830</v>
+      </c>
       <c r="R7" s="62" t="s">
         <v>75</v>
       </c>
@@ -1938,9 +1991,15 @@
       <c r="N8" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="59"/>
+      <c r="O8" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42830</v>
+      </c>
       <c r="R8" s="62" t="s">
         <v>75</v>
       </c>
